--- a/tempFiles/testcases1.xlsx
+++ b/tempFiles/testcases1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,6 @@
           <t>用例状态</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr"/>
@@ -564,11 +559,6 @@
       <c r="L2" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -629,11 +619,6 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -692,17 +677,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;标题栏&gt;合约名过长缩小字体</t>
+          <t>标题栏&gt;合约名过长缩小字体</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -750,11 +730,6 @@
       <c r="L5" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -762,7 +737,7 @@
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;标题栏&gt;合约名过长截断</t>
+          <t>标题栏&gt;合约名过长截断</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -810,11 +785,6 @@
       <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -822,7 +792,7 @@
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;标题栏&gt;左右切换键</t>
+          <t>标题栏&gt;左右切换键</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -877,17 +847,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;标题栏&gt;M主力标记</t>
+          <t>标题栏&gt;M主力标记</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -924,7 +889,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -935,11 +900,6 @@
       <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -947,7 +907,7 @@
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;标题栏&gt;合约选择框</t>
+          <t>标题栏&gt;合约选择框</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -995,11 +955,6 @@
       <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1007,7 +962,7 @@
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;右菜单&gt;界面左推</t>
+          <t>右菜单&gt;界面左推</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -1059,17 +1014,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;不关联报价内容设置</t>
+          <t>盘口&gt;不关联报价内容设置</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1120,17 +1070,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;不关联涨跌基准价设置</t>
+          <t>盘口&gt;不关联涨跌基准价设置</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1181,17 +1126,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;下拉收起操作</t>
+          <t>盘口&gt;下拉收起操作</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1243,17 +1183,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;下拉状态页面保存</t>
+          <t>盘口&gt;下拉状态页面保存</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1307,17 +1242,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;期货内容校验</t>
+          <t>盘口&gt;期货内容校验</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1356,7 +1286,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1367,11 +1297,6 @@
       <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1304,7 @@
       <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;证券内容校验</t>
+          <t>盘口&gt;证券内容校验</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1418,7 +1343,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1429,11 +1354,6 @@
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1361,7 @@
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;振幅字段校验</t>
+          <t>盘口&gt;振幅字段校验</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1480,7 +1400,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1491,11 +1411,6 @@
       <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1418,7 @@
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;换手字段校验</t>
+          <t>盘口&gt;换手字段校验</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1544,7 +1459,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1555,11 +1470,6 @@
       <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1477,7 @@
       <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;量比字段校验</t>
+          <t>盘口&gt;量比字段校验</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1595,7 +1505,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2. 百度查询
+          <t>2. 公式需要百度查询
 3. 三端量比数值一致</t>
         </is>
       </c>
@@ -1606,7 +1516,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1617,11 +1527,6 @@
       <c r="L19" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1534,7 @@
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;样式校验</t>
+          <t>盘口&gt;样式校验</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1668,7 +1573,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1679,11 +1584,6 @@
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1591,7 @@
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;盘口&gt;多周期同列界面盘口</t>
+          <t>盘口&gt;多周期同列界面盘口</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1732,7 +1632,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1743,11 +1643,6 @@
       <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1650,7 @@
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;页签新增分时</t>
+          <t>分时K线&gt;页签新增分时</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1803,11 +1698,6 @@
       <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1705,7 @@
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;分时图、K线主要内容与期货一致</t>
+          <t>分时K线&gt;分时图、K线主要内容与期货一致</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1863,11 +1753,6 @@
       <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1760,7 @@
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;K线新增五档盘口</t>
+          <t>分时K线&gt;K线新增五档盘口</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1924,11 +1809,6 @@
       <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1816,7 @@
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;K线倒计时</t>
+          <t>分时K线&gt;K线倒计时</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1990,17 +1870,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;区间统计功能遮挡盘口</t>
+          <t>分时K线&gt;区间统计功能遮挡盘口</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -2048,11 +1923,6 @@
       <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2060,7 +1930,7 @@
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;十字弹框切换合约自动关闭</t>
+          <t>分时K线&gt;十字弹框切换合约自动关闭</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2108,11 +1978,6 @@
       <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2120,7 +1985,7 @@
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;分时K线&gt;历史分时图压缩主K线</t>
+          <t>分时K线&gt;历史分时图压缩主K线</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -2174,17 +2039,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;默认页签</t>
+          <t>webview&gt;默认页签</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -2236,17 +2096,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;页签选择</t>
+          <t>webview&gt;页签选择</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2296,11 +2151,6 @@
       <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2158,7 @@
       <c r="A31" s="2" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;资讯内容校验</t>
+          <t>webview&gt;资讯内容校验</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2358,11 +2208,6 @@
       <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2215,7 @@
       <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;明细内容校验</t>
+          <t>webview&gt;明细内容校验</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2420,11 +2265,6 @@
       <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2272,7 @@
       <c r="A33" s="2" t="inlineStr"/>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;合约关联校验</t>
+          <t>webview&gt;合约关联校验</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2486,17 +2326,12 @@
           <t>Prepare</t>
         </is>
       </c>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;排行内容校验</t>
+          <t>webview&gt;排行内容校验</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2535,7 +2370,7 @@
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2546,11 +2381,6 @@
       <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2388,7 @@
       <c r="A35" s="2" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;webview&gt;F10</t>
+          <t>webview&gt;F10</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2597,7 +2427,7 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2608,11 +2438,6 @@
       <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2445,7 @@
       <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;五快捷功能栏&gt;随埋点结果配置常用5功能</t>
+          <t>五快捷功能栏&gt;随埋点结果配置常用5功能</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2657,7 +2482,7 @@
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2668,11 +2493,6 @@
       <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2500,7 @@
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>界面&gt;五快捷功能栏&gt;按键选中效果</t>
+          <t>五快捷功能栏&gt;按键选中效果</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2723,7 +2543,7 @@
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2734,11 +2554,6 @@
       <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2561,7 @@
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;合约滑动页面保存</t>
+          <t>上下滑动&gt;合约滑动页面保存</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2786,7 +2601,7 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2797,11 +2612,6 @@
       <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2619,7 @@
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;webview滑动页面保存</t>
+          <t>上下滑动&gt;webview滑动页面保存</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2852,7 +2662,7 @@
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2863,11 +2673,6 @@
       <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2680,7 @@
       <c r="A40" s="2" t="inlineStr"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;历史分时图跟随滑动</t>
+          <t>上下滑动&gt;历史分时图跟随滑动</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2914,7 +2719,7 @@
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2925,11 +2730,6 @@
       <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2737,7 @@
       <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;十字框跟随滑动</t>
+          <t>上下滑动&gt;十字框跟随滑动</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2976,7 +2776,7 @@
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2987,11 +2787,6 @@
       <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2794,7 @@
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;悬浮窗不跟随滑动</t>
+          <t>上下滑动&gt;悬浮窗不跟随滑动</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -3040,7 +2835,7 @@
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -3051,11 +2846,6 @@
       <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3063,7 +2853,7 @@
       <c r="A43" s="2" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;放大镜不跟随滑动</t>
+          <t>上下滑动&gt;放大镜不跟随滑动</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -3105,7 +2895,7 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -3116,11 +2906,6 @@
       <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3128,7 +2913,7 @@
       <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;上下滑动&gt;部分功能需要重置滑动距离</t>
+          <t>上下滑动&gt;部分功能需要重置滑动距离</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -3176,7 +2961,7 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
@@ -3187,11 +2972,6 @@
       <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3199,7 +2979,7 @@
       <c r="A45" s="2" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;左右滑动&gt;标题栏</t>
+          <t>左右滑动&gt;标题栏</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -3238,7 +3018,7 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -3249,11 +3029,6 @@
       <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3036,7 @@
       <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;左右滑动&gt;盘口</t>
+          <t>左右滑动&gt;盘口</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -3300,7 +3075,7 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
@@ -3311,11 +3086,6 @@
       <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3093,7 @@
       <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;左右滑动&gt;部分功能启用时不允许切换合约</t>
+          <t>左右滑动&gt;部分功能启用时不允许切换合约</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -3349,8 +3119,7 @@
 3. 退出上个功能，进入画线分析功能，尝试切换合约
 4. 退出上个功能，进入画线预警功能，尝试切换合约
 5. 退出上个功能，进入画线止损止盈功能，尝试切换合约
-6. 退出上个功能，进入日K线的查看历史分时图功能，尝试切换合约
-7. 验证其余功能</t>
+6. 验证其余功能</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3359,8 +3128,7 @@
 3. 交互无效，合约未做切换
 4. 交互无效，合约未做切换
 5. 交互无效，合约未做切换
-6. 交互无效，合约未做切换
-7. 其余功能都可以正常切换合约</t>
+6. 其余功能都可以正常切换合约</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3381,11 +3149,6 @@
       <c r="L47" s="2" t="inlineStr">
         <is>
           <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3156,7 @@
       <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>交互&gt;左右滑动&gt;自选列表循环滑动</t>
+          <t>左右滑动&gt;历史分时图切换合约</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -3413,191 +3176,506 @@
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入日K线的查看历史分时图功能，尝试切换合约</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换合约，但是会取消历史分时图的展示</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr"/>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;十字弹框切换合约</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入分时图或K线，长按出十字弹框，尝试切换合约</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换合约，但是会取消十字弹框的展示</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr"/>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;区间统计切换合约</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入区间统计功能，尝试切换合约</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换合约，但是会取消盘口处的区间统计展示</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr"/>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;自选列表循环滑动</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>1. 当前自选列表中只有A、B、C三个自选
 2. 进入证券风格的A合约
 3. 一直向右或一直向左切换合约，观察合约情况</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="H51" s="2" t="inlineStr">
         <is>
           <t>3. 与期货风格一致，会在A、B、C列表中循环滑动</t>
         </is>
       </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;左右滑动&gt;周期页签栏</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr"/>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;周期页签栏</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格
 2. K线周期设置了多个，供以页签一页显示不下需要拖动</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>1. 点击1分钟页签
 2. 点击分时页签
 3. 拖动页签栏</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr">
+      <c r="H52" s="2" t="inlineStr">
         <is>
           <t>1. 成功切换到1分钟图表
 2. 成功切换到分时图
 3. 页签栏正确滑动</t>
         </is>
       </c>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;左右滑动&gt;分时图</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr"/>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;历史分时图切换周期</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入日K线的查看历史分时图功能，尝试切换周期</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换周期，但是会取消历史分时图的展示</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr"/>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;十字弹框切换周期</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入分时图或K线，长按出十字弹框，尝试切换周期</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换周期，但是会取消十字弹框的展示</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr"/>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;区间统计切换周期</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入区间统计功能，尝试切换周期</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换周期，但是会取消盘口处的区间统计展示</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr"/>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;分时图</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于分时图界面
 2. 左右拖动分时图</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>2. 拖动无效果</t>
         </is>
       </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr"/>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;左右滑动&gt;五档盘口</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr"/>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;五档盘口</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于分时图或K线图
 2. 向右拖动五档盘口
@@ -3605,123 +3683,170 @@
 4. 再次向左拖动五档盘口</t>
         </is>
       </c>
-      <c r="H51" s="2" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>2. 页签栏从分时切换到1分钟K
 3. 页签栏从1分钟K切换回分时
 4. 分时左侧无更多页签，无效果</t>
         </is>
       </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;左右滑动&gt;K线</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr"/>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;K线</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于K线界面
 2. 左右滑动K线</t>
         </is>
       </c>
-      <c r="H52" s="2" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>2. 保持原先查看历史K线能力</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;左右滑动&gt;webview</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr"/>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;区间统计下滑动、缩放K线</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入区间统计功能，尝试滑动K线，查看历史K。观察区间统计的区域
+3. 尝试缩放K线。观察区间统计的区域</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>2. 跟随K线整体移动，可以移动到屏幕以外，因此上方统计的数值不会改变
+3. 也跟随K线同比例缩放，因此上方统计的数值不会改变</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr"/>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>左右滑动&gt;webview</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>1. 设置中已经开启了证券风格</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资讯web中
 2. 尝试右滑
@@ -3732,7 +3857,7 @@
 7. 尝试左滑</t>
         </is>
       </c>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>2. 明细页签选中，红色小圆弧更新到下方
 3. 关联页签选中，红色小圆弧更新到下方
@@ -3742,56 +3867,51 @@
 7. 排行页签选中，红色小圆弧更新到下方</t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;闪电下单</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr"/>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;闪电下单</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前已进入闪电下单模式下
@@ -3799,62 +3919,57 @@
 4. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>3. 闪电下单不跟随界面上下变化
 4. 闪电下单不跟随界面左右变化。但合约切换完后，需要正确更新默认手数、默认价格、三键等等控件</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;画线下单</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr"/>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;画线下单</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前已进入画线下单模式下
@@ -3862,62 +3977,57 @@
 4. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>3. 画线下单不跟随界面上下变化
 4. 画线下单不跟随界面左右变化。但合约切换完后，需要正确更新买卖平反、默认手数等控件</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr"/>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;画线预警</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr"/>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;画线预警</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前已进入画线预警模式下
@@ -3925,62 +4035,57 @@
 4. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>3. 画线预警不跟随界面上下变化
 4. 画线预警不跟随界面左右变化</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;画线分析</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr"/>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;画线分析</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前已进入画线分析模式下
@@ -3988,62 +4093,57 @@
 4. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>3. 画线分析不跟随界面上下变化
 4. 画线分析不跟随界面左右变化</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr"/>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;画线止损止盈</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr"/>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;画线止损止盈</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前已进入画线止损止盈模式下
@@ -4051,124 +4151,114 @@
 4. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>3. 画线止损止盈不跟随界面上下变化
 4. 画线止损止盈不跟随界面左右变化</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M58" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;独立悬浮窗&gt;五快捷功能栏</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr"/>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>独立悬浮窗&gt;五快捷功能栏</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>1. 设置中已经开启了证券风格</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 尝试上下滑动界面
 3. 尝试左右滑动切换合约</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="H66" s="2" t="inlineStr">
         <is>
           <t>2. 五快捷功能栏不跟随界面上下变化
 3. 五快捷功能栏不跟随界面左右变化</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M59" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr"/>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;横屏&gt;页签新增分时</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>1. 设置中已经开启了证券风格</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr"/>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>横屏&gt;横屏下页签新增分时</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 当前处于分时图界面
@@ -4176,61 +4266,56 @@
 4. 查看上方页签</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr">
+      <c r="H67" s="2" t="inlineStr">
         <is>
           <t>4. 页签中新增了“分时”选项，可以自由在分时、K线切换</t>
         </is>
       </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M60" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr"/>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;横屏&gt;期货风格同步更新</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>1. 设置中已经开启了证券风格</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr"/>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>横屏&gt;横屏下期货风格更新</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr"/>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>1. 设置中修改证券风格为期货风格
 2. 进入期货界面
@@ -4239,62 +4324,57 @@
 5. 查看横屏时页签</t>
         </is>
       </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>3. 原版期货风格没有"分时"页签，依旧是独立界面
 5. 页签中新增了“分时”选项，可以自由在分时、K线切换</t>
         </is>
       </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M61" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr"/>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;横屏&gt;处于模式中，不可返回竖屏</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>1. 设置中已经开启了证券风格</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr"/>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>横屏&gt;处于模式中，不可切换横竖屏</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. app横屏，再竖屏
@@ -4303,7 +4383,7 @@
 5. 同理测试画线下单、画线预警、画线分析、画线止损止盈等等</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>2. 可以正常返回竖屏
 3. 不可返回竖屏
@@ -4311,56 +4391,51 @@
 5. 处于模式中，都不可返回竖屏</t>
         </is>
       </c>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M62" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr"/>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>交互&gt;横屏&gt;横竖屏切换不影响上下滑动位置</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>/3.7.0/证券风格/</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>1. 设置中已经开启了证券风格</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr"/>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>横屏&gt;横竖屏切换不影响上下滑动位置</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于证券风格界面
 2. 滑动竖屏页面到中间，app横屏，再竖屏
@@ -4368,63 +4443,443 @@
 4. 滑动竖屏页面到中间，app横屏，切换周期到分时再到1日K，再竖屏</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="H70" s="2" t="inlineStr">
         <is>
           <t>2. 滑动位置依然在中间
 3. 滑动位置依然在中间
 4. 滑动位置依然在中间</t>
         </is>
       </c>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K63" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M63" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr"/>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr"/>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;十字弹框切换横竖屏</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入分时图或K线，长按出十字弹框，尝试切换横竖屏</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换横竖屏，但是会取消十字弹框的展示</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr"/>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;区间统计切换横竖屏</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入区间统计功能，尝试切换横竖屏</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换横竖屏，但是会取消盘口处的区间统计展示</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr"/>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;历史分时图切换横竖屏</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr"/>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于证券风格界面
+2. 进入日K线的查看历史分时图功能，尝试切换横竖屏</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换横竖屏，但是会取消历史分时图的展示</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr"/>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;十字弹框切换合约</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入分时图或K线，长按出十字弹框，尝试切换合约</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>2. 不允许切换合约</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr"/>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;区间统计切换合约</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr"/>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入区间统计功能，尝试切换合约</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>2. 不允许切换合约</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;十字弹框切换周期</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入分时图或K线，长按出十字弹框，尝试切换周期</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换周期，但是会取消十字弹框的展示</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr"/>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>操作正交&gt;区间统计切换周期</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/证券风格/</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于横屏下的旧版界面
+2. 进入区间统计功能，尝试切换周期</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>2. 可以切换周期，但是会取消盘口处的区间统计展示</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>入口隐藏</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录了普通期货账号
 2. 点击进入交易相关
@@ -4434,368 +4889,338 @@
 6. 点击进入交易相关</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>2. 没有【资金内转】入口
 4. 出现了【资金内转】入口
 6. 【资金内转】入口再做隐藏</t>
         </is>
       </c>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M64" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr"/>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>界面&gt;入口位置</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
         <is>
           <t>1. 打开交易相关界面</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
+      <c r="H79" s="2" t="inlineStr">
         <is>
           <t>1. 入口位置在交易相关最下方，也即【修改密码】下方</t>
         </is>
       </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M65" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>界面&gt;页面进出</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
         <is>
           <t>1. 点击进入【交易相关 - 资金内转】
 2. 点击左上角返回按钮</t>
         </is>
       </c>
-      <c r="H66" s="2" t="inlineStr">
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>1. 成功进入资金内转界面
 2. 成功退出资金内转界面</t>
         </is>
       </c>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M66" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>界面&gt;股票期权账户</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录单账户A，进入资金内转界面
 2. 点击右侧下拉</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr">
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>1. 股票期权账户栏显示A期货公司 + 账户ID，下方有A有对应的期货公司账号，只展示账户ID，再下方是A账户的可转余额
 2. 但账户也支持点击下拉</t>
         </is>
       </c>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M67" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>界面&gt;股票期权可转余额</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr">
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
         <is>
           <t>1. 当前内转方向为股票期权 转 期货
 2. 观察可转余额
 3. 比对三端余额数</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="H82" s="2" t="inlineStr">
         <is>
           <t>2. 可转余额查询不需要密码，进入界面即可获取到
 3. 三端数据正确，显示统一</t>
         </is>
       </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M68" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr"/>
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>界面&gt;期货可转余额</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr"/>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
         <is>
           <t>1. 当前内转方向为期货 转 股票期权
 2. 观察可转余额
 3. 比对三端余额数</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="H83" s="2" t="inlineStr">
         <is>
           <t>2. 可转余额查询不需要密码，进入界面即可获取到
 3. 三端数据正确，显示统一</t>
         </is>
       </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K69" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M69" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr"/>
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>界面&gt;内转方向切换</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr"/>
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
         <is>
           <t>1. app首次进入资金内转界面
 2. 观察内转方向默认值
@@ -4803,185 +5228,170 @@
 4. 点击“股票期权 转 期货”文字</t>
         </is>
       </c>
-      <c r="H70" s="2" t="inlineStr">
+      <c r="H84" s="2" t="inlineStr">
         <is>
           <t>2. 默认为【股票期权 转 期货】
 3. 成功切换方向，下方可转余额变为   期货的可转余额
 4. 点击文字不支持切换方向</t>
         </is>
       </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K70" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M70" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr"/>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>界面&gt;内转方向长期保存</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr"/>
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
         <is>
           <t>1. app切换了内转方向为“期货 转 股票期权”
 2. app重启，进入资金内转界面
 3. app重新安装，进入资金内转界面</t>
         </is>
       </c>
-      <c r="H71" s="2" t="inlineStr">
+      <c r="H85" s="2" t="inlineStr">
         <is>
           <t>2. 长期保存，依旧是“期货 转 股票期权”
 3. 恢复成了默认值“股票期权 转 期货”</t>
         </is>
       </c>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K71" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M71" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr"/>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>界面&gt;内转金额右对齐展示</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr"/>
-      <c r="E72" s="2" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr"/>
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资金内转界面
 2. 输入内转金额</t>
         </is>
       </c>
-      <c r="H72" s="2" t="inlineStr">
+      <c r="H86" s="2" t="inlineStr">
         <is>
           <t>2. 内转金额右对齐展示</t>
         </is>
       </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K72" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M72" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr"/>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>界面&gt;密码输入弹框</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr"/>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录并正在使用个股/股票期权账号ETF账号</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资金内转界面
 2. 输入正确的内转金额后，点击确定
@@ -4989,124 +5399,114 @@
 4. 密码输入框，点击【确定】校验密码不为空，为空弹toast提示输入XX密码；提交关闭弹框并发出资金内转请求，并弹toast：已成功提交资金内转请求。</t>
         </is>
       </c>
-      <c r="H73" s="2" t="inlineStr">
+      <c r="H87" s="2" t="inlineStr">
         <is>
           <t>2. 弹出输入密码框
 4. 子主题 1</t>
         </is>
       </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M73" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr"/>
-      <c r="B74" s="2" t="inlineStr">
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L87" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>交互&gt;多个股票期权账户</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr"/>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
+      <c r="D88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
         <is>
           <t>1. 当前登录了A、B、C、D、E个股票期权账户
 2. 当前使用A账户进入资金内转界面
 3. 点击右侧下拉</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
+      <c r="H88" s="2" t="inlineStr">
         <is>
           <t>2. 股票期权账户栏显示的是A，下方有A有对应的期货账户，A账户的可转余额
 3. 出现了账户下拉列表，一面最多显示4个，当前选中的账户A红色加粗显示</t>
         </is>
       </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr">
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L74" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M74" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr"/>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>交互&gt;界面进出刷新</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr"/>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G75" s="2" t="inlineStr">
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
         <is>
           <t>1. A测试机进入资金内转界面等待
 2. 使用B测试机进行内转，改变可转金额
@@ -5114,62 +5514,57 @@
 4. 重新进出资金内转界面，再次观察</t>
         </is>
       </c>
-      <c r="H75" s="2" t="inlineStr">
+      <c r="H89" s="2" t="inlineStr">
         <is>
           <t>3. 界面未做刷新
 4. 界面刷新，可转余额更新为了最新值</t>
         </is>
       </c>
-      <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J75" s="2" t="inlineStr">
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K75" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L75" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M75" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>交互&gt;切换方向刷新</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G76" s="2" t="inlineStr">
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
         <is>
           <t>1. A测试机进入资金内转界面等待
 2. 使用B测试机进行内转，改变可转金额
@@ -5177,62 +5572,57 @@
 4. 手动切换两次内转方向后，再次观察</t>
         </is>
       </c>
-      <c r="H76" s="2" t="inlineStr">
+      <c r="H90" s="2" t="inlineStr">
         <is>
           <t>3. 界面未做刷新
 4. 界面刷新，可转余额更新为了最新值</t>
         </is>
       </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
+      <c r="I90" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K76" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M76" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr">
         <is>
           <t>交互&gt;切换多账号刷新</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="inlineStr">
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="inlineStr">
         <is>
           <t>1. A测试机进入资金内转界面等待
 2. 使用B测试机进行内转，改变可转金额
@@ -5240,62 +5630,57 @@
 4. 手动切换期货账号B，再返回A后，再次观察</t>
         </is>
       </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="H91" s="2" t="inlineStr">
         <is>
           <t>3. 界面未做刷新
 4. 界面刷新，可转余额更新为了最新值</t>
         </is>
       </c>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K77" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M77" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L91" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr">
         <is>
           <t>交互&gt;密码界面进出刷新</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr">
+      <c r="D92" s="2" t="inlineStr"/>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="inlineStr">
         <is>
           <t>1. A测试机进入资金内转界面等待
 2. 使用B测试机进行内转，改变可转金额
@@ -5303,62 +5688,57 @@
 4. 点击确定，进入密码输入界面后立即退出，再次观察</t>
         </is>
       </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="H92" s="2" t="inlineStr">
         <is>
           <t>3. 界面未做刷新
 4. 界面刷新，可转余额更新为了最新值</t>
         </is>
       </c>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
+      <c r="I92" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K78" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M78" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="K92" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L92" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr"/>
+      <c r="B93" s="2" t="inlineStr">
         <is>
           <t>交互&gt;成功内转界面刷新</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr"/>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr">
+      <c r="D93" s="2" t="inlineStr"/>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
         <is>
           <t>1. A测试机进入资金内转界面等待
 2. 使用B测试机进行内转，改变可转金额
@@ -5366,185 +5746,170 @@
 4. 在A测试机上成功转账一次，再次观察</t>
         </is>
       </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="H93" s="2" t="inlineStr">
         <is>
           <t>3. 界面未做刷新
 4. 界面刷新，可转余额更新为了最新值</t>
         </is>
       </c>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K79" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M79" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="K93" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>交互&gt;内转金额手动输入</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D80" s="2" t="inlineStr"/>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
+      <c r="D94" s="2" t="inlineStr"/>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资金内转界面
 2. 点击内转金额
 3. 只有2位小数</t>
         </is>
       </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="H94" s="2" t="inlineStr">
         <is>
           <t>1. 输入校验
 2. 弹出正值支持小数点的价格输入键盘</t>
         </is>
       </c>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K80" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M80" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="K94" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>交互&gt;切换方向清空内转金额</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D81" s="2" t="inlineStr"/>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
+      <c r="D95" s="2" t="inlineStr"/>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
         <is>
           <t>1. 让用户手动输入，当输入金额大于可转余额，输入框失去焦点后，数字自动转换成可转余额。
 2. 不考虑币种，只有人民币
 3. 只有2位小数</t>
         </is>
       </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="H95" s="2" t="inlineStr">
         <is>
           <t>1. 输入校验</t>
         </is>
       </c>
-      <c r="I81" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K81" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M81" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="K95" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>交互&gt;密码校验</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资金密码输入框中
 2. 股票期权资金密码输入为空，点击确定按钮
@@ -5553,7 +5918,7 @@
 5. 等待10秒以内</t>
         </is>
       </c>
-      <c r="H82" s="2" t="inlineStr">
+      <c r="H96" s="2" t="inlineStr">
         <is>
           <t>2. 弹框不关闭，toast提示：请输入资金密码
 3. 弹框不关闭，toast提示：请输入资金密码
@@ -5561,809 +5926,801 @@
 5. 弹框关闭，弹框提示：【已成功提交资金内转请求】【确定】</t>
         </is>
       </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K82" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr"/>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="K96" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>交互&gt;通知回报</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr"/>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
         <is>
           <t>1. 事先已提交资金内转申请
 2. 等待CTP柜台通过申请
 3. 观察APP通知提示</t>
         </is>
       </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>3. 界面上方出现类似交易通知回报，回报格式为：XXX资金内转：方向，金额，状态信息</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>3. 界面上方出现类似交易通知回报，回报格式为：资金内转：股票期权账户 {状态信息}\n期货账户 {状态信息}</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K83" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M83" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr"/>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="K97" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr"/>
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>异常流&gt;股票期权账户进入后登出</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D84" s="2" t="inlineStr"/>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="inlineStr">
+      <c r="D98" s="2" t="inlineStr"/>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
         <is>
           <t>1. 当前进入了资金内转界面
 2. 主动或被动登出原股票期权账户
 3. 尝试切换内转方向</t>
         </is>
       </c>
-      <c r="H84" s="2" t="inlineStr">
+      <c r="H98" s="2" t="inlineStr">
         <is>
           <t>2. 界面无反应
 3. 触发刷新，下方期货账户、可转余额从展示变为空。同时【确定】按钮也置灰，点击无效</t>
         </is>
       </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K84" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M84" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr"/>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="K98" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>异常流&gt;期货账户获取不到</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr"/>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
+      <c r="D99" s="2" t="inlineStr"/>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
         <is>
           <t>1. 弱网/断网条件下，进入资金内转界面
 2. 观察期货账户
 3. 观察下方【确定】按钮</t>
         </is>
       </c>
-      <c r="H85" s="2" t="inlineStr">
+      <c r="H99" s="2" t="inlineStr">
         <is>
           <t>1. 弹出弹框提示：【当前股票期权账户无对应期货账号】【确定】
 2. 显示为空
 3. 【确定】按钮置灰，点击无效</t>
         </is>
       </c>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K85" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M85" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr"/>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="K99" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>异常流&gt;可转余额获取不到</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D86" s="2" t="inlineStr"/>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
+      <c r="D100" s="2" t="inlineStr"/>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
         <is>
           <t>1. 弱网/断网条件下，进入资金内转界面
 2. 观察可转余额
 3. 观察下方【确定】按钮</t>
         </is>
       </c>
-      <c r="H86" s="2" t="inlineStr">
+      <c r="H100" s="2" t="inlineStr">
         <is>
           <t>1. 会有弹框提示：
 2. 显示为空，而非0
 3. 【确定】按钮置灰，点击无效</t>
         </is>
       </c>
-      <c r="I86" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K86" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M86" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr"/>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="K100" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>异常流&gt;内转金额输入过大</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D87" s="2" t="inlineStr"/>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr"/>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>1. 让用户手动输入，当输入金额大于可转余额，输入框失去焦点后，数字自动转换成可转余额。
 2. 不考虑币种，只有人民币
 3. 只有2位小数</t>
         </is>
       </c>
-      <c r="H87" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>1. 输入校验</t>
         </is>
       </c>
-      <c r="I87" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J87" s="2" t="inlineStr">
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K87" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L87" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr"/>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>异常流&gt;资金密码错误</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="K101" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>异常流&gt;股票期权密码错误</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D88" s="2" t="inlineStr"/>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
+      <c r="D102" s="2" t="inlineStr"/>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>1. 当前处于资金密码输入框中
+2. 输入错误的股票资金密码与正确的期货资金密码，点击确定按钮
+3. 等待10秒以内
+4. 输入错误的股票资金密码与错误的期货资金密码，点击确定按钮
+5. 等待10秒以内</t>
+        </is>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>2. 弹出loading图标，禁止用户点击。
+3. 弹框不关闭，在【取消】按钮的上方展示中继返回错误信息：【股票期权资金密码错误】，错误信息红字加粗展示
+4. 弹出loading图标，禁止用户点击。
+5. 弹框不关闭，在【取消】按钮的上方展示中继返回两行错误信息：【股票期权资金密码错误】，错误信息红字加粗展示</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr"/>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>异常流&gt;期货密码错误</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>/3.7.0/CTP资金内转/</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr"/>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于资金密码输入框中
 2. 输入正确的股票资金密码与错误的期货资金密码，点击确定按钮
 3. 等待10秒以内
-4. 输入错误的股票资金密码与正确的期货资金密码，点击确定按钮
-5. 等待10秒以内
-6. 输入错误的股票资金密码与错误的期货资金密码，点击确定按钮
-7. 等待10秒以内</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
+4. 等待CTP柜台处理申请
+5. 观察APP通知提示</t>
+        </is>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>2. 弹出loading图标，禁止用户点击。
-3. 弹框不关闭，在【取消】按钮的上方展示中继返回错误信息：【期货资金密码错误】，错误信息红字加粗展示
-4. 弹出loading图标，禁止用户点击。
-5. 弹框不关闭，在【取消】按钮的上方展示中继返回错误信息：【股票期权资金密码错误】，错误信息红字加粗展示
-6. 弹出loading图标，禁止用户点击。
-7. 弹框不关闭，在【取消】按钮的上方展示中继返回两行错误信息：【股票期权资金密码错误】【期货资金密码错误】，错误信息红字加粗展示</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
+3. 弹框关闭，弹框提示：【已成功提交资金内转请求】【确定】
+4. 出金可以成功，但是入金会失败
+5. 界面上方出现类似交易通知回报，回报格式为：资金内转：股票期权账户 {状态信息}\n期货账户 {状态信息}</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K88" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M88" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr"/>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="K103" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr"/>
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>异常流&gt;中继返回超时</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/CTP资金内转/</t>
         </is>
       </c>
-      <c r="D89" s="2" t="inlineStr"/>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
+      <c r="D104" s="2" t="inlineStr"/>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
         <is>
           <t>1. 当前已处于资金密码输入弹框中
 2. 处于弱网或断网环境下，向中继发出申请
 3. 等待10秒以上，都没有返回结果</t>
         </is>
       </c>
-      <c r="H89" s="2" t="inlineStr">
+      <c r="H104" s="2" t="inlineStr">
         <is>
           <t>2. 弹出loading图标，禁止用户点击。
 3. 弹框不关闭，loading图标消失，红字显示错误信息【请求超时，请稍后重试】</t>
         </is>
       </c>
-      <c r="I89" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K89" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M89" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr"/>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="K104" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr"/>
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>点击买卖更改</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/云套利方向/</t>
         </is>
       </c>
-      <c r="D90" s="2" t="inlineStr"/>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="D105" s="2" t="inlineStr"/>
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>1. 1. 事先已设好 A-B-C-D的云套利合约，A、C为买入，B、D为卖出
 2. 当前处于云套利下单编辑界面</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
         <is>
           <t>1. 当前A合约为买方向，观察进来时默认触发方向与触发价
 2. 点击切换A合约为卖
 3. 点击切换B合约为卖</t>
         </is>
       </c>
-      <c r="H90" s="2" t="inlineStr">
+      <c r="H105" s="2" t="inlineStr">
         <is>
           <t>1. 默认  &lt;= 云套利合约整体的卖价
 2. 下方 “&lt;= 卖价”同步修改为“&gt;=买价”
 3. 下方 “&gt;=买价”又再次更改为了“&lt;= 卖价”</t>
         </is>
       </c>
-      <c r="I90" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K90" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M90" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr"/>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="K105" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>点击方向不更改</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/云套利方向/</t>
         </is>
       </c>
-      <c r="D91" s="2" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr">
+      <c r="D106" s="2" t="inlineStr"/>
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>1. 1. 事先已设好 A-B-C-D的云套利合约，A、C为买入，B、D为卖出
 2. 当前处于云套利下单编辑界面</t>
         </is>
       </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
         <is>
           <t>1. 当前A合约为买方向，观察进来时默认触发方向与触发价
 2. 点击 &lt;= 更改为 &gt;=，观察上方买卖的方向
 3. 此时点击切换A合约为卖</t>
         </is>
       </c>
-      <c r="H91" s="2" t="inlineStr">
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>1. 默认  &lt;= 云套利合约整体的卖价
 2. 买卖方向不会变化，触发价格也不改变
 3. 买卖方向不会变化（因为之前已手动更改），触发价格修正成了买价</t>
         </is>
       </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr">
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L91" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M91" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr"/>
-      <c r="B92" s="2" t="inlineStr">
+      <c r="K106" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr"/>
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>切换模式默认最新价</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/点价下单切换最新、手动长期保存/</t>
         </is>
       </c>
-      <c r="D92" s="2" t="inlineStr"/>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
         <is>
           <t>1. app首次安装
 2. 进入点价下单界面
 3. 观察切换模式</t>
         </is>
       </c>
-      <c r="H92" s="2" t="inlineStr">
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>3. 切换模式默认最新价</t>
         </is>
       </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L92" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M92" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr"/>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="K107" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr"/>
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>切换手动长期保存</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/点价下单切换最新、手动长期保存/</t>
         </is>
       </c>
-      <c r="D93" s="2" t="inlineStr"/>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于点击下单界面
 2. 点击最新价，切换为手动
 3. app重启进入点价下单</t>
         </is>
       </c>
-      <c r="H93" s="2" t="inlineStr">
+      <c r="H108" s="2" t="inlineStr">
         <is>
           <t>3. 长期保存，依旧是手动</t>
         </is>
       </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M93" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr"/>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>手动模式进出界面</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/点价下单切换最新、手动长期保存/</t>
         </is>
       </c>
-      <c r="D94" s="2" t="inlineStr"/>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
         <is>
           <t>1. 当前设置了手动模式
 2. 滑动界面到一定距离
 3. 退出点价下单界面，重新进入</t>
         </is>
       </c>
-      <c r="H94" s="2" t="inlineStr">
+      <c r="H109" s="2" t="inlineStr">
         <is>
           <t>3. 界面重新进入，不需要保留上回滑动位置，刷新为最新价在中间</t>
         </is>
       </c>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K94" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M94" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr"/>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="K109" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr"/>
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>指标功能更改</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/K线副图不限制指标类型/</t>
         </is>
       </c>
-      <c r="D95" s="2" t="inlineStr"/>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="D110" s="2" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>1. 当前设置了量仓指标与摆动指标都至少有1个</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于K线界面
 2. 查看2个副图指标
@@ -6371,62 +6728,57 @@
 4. 尝试点击切换第二幅图</t>
         </is>
       </c>
-      <c r="H95" s="2" t="inlineStr">
+      <c r="H110" s="2" t="inlineStr">
         <is>
           <t>3. 第一幅图不再只是量仓指标，也能切换到摆动指标
 4. 第二幅图不再只是摆动指标，也能切换到量仓指标</t>
         </is>
       </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M95" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>单独副图隐藏</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/K线副图不限制指标类型/</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="D111" s="2" t="inlineStr"/>
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>1. 当前设置了量仓指标与摆动指标都至少有1个</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于K线界面
 2. 查看2个副图指标
@@ -6436,62 +6788,57 @@
 6. 返回K线</t>
         </is>
       </c>
-      <c r="H96" s="2" t="inlineStr">
+      <c r="H111" s="2" t="inlineStr">
         <is>
           <t>4. 第一幅图被隐藏
 6. 第二幅图被隐藏</t>
         </is>
       </c>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M96" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr"/>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>指标统一保存</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/K线副图不限制指标类型/</t>
         </is>
       </c>
-      <c r="D97" s="2" t="inlineStr"/>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="D112" s="2" t="inlineStr"/>
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>1. 当前设置了量仓指标与摆动指标都至少有1个</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
         <is>
           <t>1. 当前处于K线界面
 2. 当前拥有2副副图，分别为CJL、MACD
@@ -6500,245 +6847,225 @@
 5. 同理测试多股同列、多周期同列</t>
         </is>
       </c>
-      <c r="H97" s="2" t="inlineStr">
+      <c r="H112" s="2" t="inlineStr">
         <is>
           <t>3. 指标为第一幅图的CJL
 4. 竖屏下第一副图的CJL也被更改为了MACD，也即会显示两个MACD
 5. 多股同列、多周期同列也统一保存指标切换值</t>
         </is>
       </c>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="K97" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M97" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr"/>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>取消原版右上角关闭按钮</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/柜台消息弹窗优化/</t>
         </is>
       </c>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
         <is>
           <t>1. App收到消息通知
 2. 观察通知框</t>
         </is>
       </c>
-      <c r="H98" s="2" t="inlineStr">
+      <c r="H113" s="2" t="inlineStr">
         <is>
           <t>2. 无原版右上角的关闭按钮</t>
         </is>
       </c>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J98" s="2" t="inlineStr">
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K98" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L98" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M98" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr"/>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>下一条改为已读</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/柜台消息弹窗优化/</t>
         </is>
       </c>
-      <c r="D99" s="2" t="inlineStr"/>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
         <is>
           <t>1. App收到消息通知
 2. 观察通知框</t>
         </is>
       </c>
-      <c r="H99" s="2" t="inlineStr">
+      <c r="H114" s="2" t="inlineStr">
         <is>
           <t>2. 下一条改为了已读</t>
         </is>
       </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="K99" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M99" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="inlineStr"/>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>已读至最后，弹框关闭</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/柜台消息弹窗优化/</t>
         </is>
       </c>
-      <c r="D100" s="2" t="inlineStr"/>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="inlineStr">
+      <c r="D115" s="2" t="inlineStr"/>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
         <is>
           <t>1. App收到消息通知
 2. 点击已读到最后一条
 3. 点击进入消息通知里</t>
         </is>
       </c>
-      <c r="H100" s="2" t="inlineStr">
+      <c r="H115" s="2" t="inlineStr">
         <is>
           <t>2. 弹框关闭
 3. 所有消息都置为已读</t>
         </is>
       </c>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M100" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="inlineStr"/>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr"/>
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>已读状态，长期保存</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/柜台消息弹窗优化/</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr"/>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
+      <c r="D116" s="2" t="inlineStr"/>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
         <is>
           <t>1. 事先已将消息信息全部已读
 2. app重新启动
@@ -6746,96 +7073,86 @@
 4. app卸载重装</t>
         </is>
       </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="H116" s="2" t="inlineStr">
         <is>
           <t>2. 不会再收到旧的通知信息
 3. 所有消息都置为已读
 4. 依旧能收到已读信息</t>
         </is>
       </c>
-      <c r="I101" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M101" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr"/>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr"/>
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>上一条无消息点击无效</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>/3.7.0/柜台消息弹窗优化/</t>
         </is>
       </c>
-      <c r="D102" s="2" t="inlineStr"/>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="inlineStr">
+      <c r="D117" s="2" t="inlineStr"/>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="inlineStr">
         <is>
           <t>1. App收到消息通知
 2. 直接点击上一条</t>
         </is>
       </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>2. 点击无效</t>
         </is>
       </c>
-      <c r="I102" s="2" t="inlineStr">
-        <is>
-          <t>STEP</t>
-        </is>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>STEP</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="K102" s="2" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Prepare</t>
-        </is>
-      </c>
-      <c r="M102" s="2" t="inlineStr">
-        <is>
-          <t>未定义此列头内容</t>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Prepare</t>
         </is>
       </c>
     </row>
